--- a/Excel project.xlsx.xlsx
+++ b/Excel project.xlsx.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Graphs" sheetId="1" r:id="rId3"/>
+    <sheet name="pivot table" sheetId="5" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId3"/>
     <sheet name="Grphs 2" sheetId="2" r:id="rId4"/>
     <sheet name="graphs 3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="6" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -465,7 +465,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:pivotSource>
-    <c:name>[PR-1.xlsx]Sheet4!PivotTable1</c:name>
+    <c:name>[Excel project.xlsx.xlsx]Sheet4!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -548,7 +548,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -621,24 +621,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98645504"/>
-        <c:axId val="98647040"/>
+        <c:axId val="49489408"/>
+        <c:axId val="49490944"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="98645504"/>
+        <c:axId val="49489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98647040"/>
+        <c:crossAx val="49490944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98647040"/>
+        <c:axId val="49490944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98645504"/>
+        <c:crossAx val="49489408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -659,7 +659,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -675,9 +675,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4682852143482132E-2"/>
+          <c:x val="8.4682852143482187E-2"/>
           <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.72562401574803181"/>
+          <c:w val="0.72562401574803193"/>
           <c:h val="0.79822506561679785"/>
         </c:manualLayout>
       </c:layout>
@@ -752,24 +752,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98668544"/>
-        <c:axId val="98670080"/>
+        <c:axId val="50253824"/>
+        <c:axId val="50255360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98668544"/>
+        <c:axId val="50253824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98670080"/>
+        <c:crossAx val="50255360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98670080"/>
+        <c:axId val="50255360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +777,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98668544"/>
+        <c:crossAx val="50253824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -790,7 +790,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -811,7 +811,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.3016185476815394E-2"/>
           <c:y val="7.4548702245552628E-2"/>
-          <c:w val="0.62094116360454976"/>
+          <c:w val="0.62094116360454998"/>
           <c:h val="0.79822506561679785"/>
         </c:manualLayout>
       </c:layout>
@@ -903,25 +903,25 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="97422336"/>
-        <c:axId val="97424128"/>
-        <c:axId val="96328320"/>
+        <c:axId val="50273280"/>
+        <c:axId val="50291456"/>
+        <c:axId val="50257920"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="97422336"/>
+        <c:axId val="50273280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97424128"/>
+        <c:crossAx val="50291456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97424128"/>
+        <c:axId val="50291456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,18 +929,18 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97422336"/>
+        <c:crossAx val="50273280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="96328320"/>
+        <c:axId val="50257920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97424128"/>
+        <c:crossAx val="50291456"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -962,7 +962,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -972,7 +972,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:pivotSource>
-    <c:name>[PR-1.xlsx]Sheet6!PivotTable3</c:name>
+    <c:name>[Excel project.xlsx.xlsx]Sheet6!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1099,24 +1099,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101012224"/>
-        <c:axId val="101013760"/>
+        <c:axId val="50492160"/>
+        <c:axId val="50493696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101012224"/>
+        <c:axId val="50492160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101013760"/>
+        <c:crossAx val="50493696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101013760"/>
+        <c:axId val="50493696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1124,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101012224"/>
+        <c:crossAx val="50492160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1137,7 +1137,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1147,7 +1147,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:pivotSource>
-    <c:name>[PR-1.xlsx]Sheet6!PivotTable5</c:name>
+    <c:name>[Excel project.xlsx.xlsx]Sheet6!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1217,24 +1217,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="101058432"/>
-        <c:axId val="101059968"/>
+        <c:axId val="50550656"/>
+        <c:axId val="50552192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101058432"/>
+        <c:axId val="50550656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101059968"/>
+        <c:crossAx val="50552192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101059968"/>
+        <c:axId val="50552192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1242,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101058432"/>
+        <c:crossAx val="50550656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1255,7 +1255,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1265,7 +1265,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:pivotSource>
-    <c:name>[PR-1.xlsx]Sheet5!PivotTable2</c:name>
+    <c:name>[Excel project.xlsx.xlsx]pivot table!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1290,7 +1290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$B$1</c:f>
+              <c:f>'pivot table'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1301,7 +1301,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$2:$A$6</c:f>
+              <c:f>'pivot table'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1321,7 +1321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$2:$B$6</c:f>
+              <c:f>'pivot table'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1341,24 +1341,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95076736"/>
-        <c:axId val="95078272"/>
+        <c:axId val="97118464"/>
+        <c:axId val="97254016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95076736"/>
+        <c:axId val="97118464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95078272"/>
+        <c:crossAx val="97254016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95078272"/>
+        <c:axId val="97254016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1366,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95076736"/>
+        <c:crossAx val="97118464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,7 +1379,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1402,7 +1402,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$1</c:f>
+              <c:f>Dashboard!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1413,7 +1413,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$2:$C$8</c:f>
+              <c:f>Dashboard!$A$2:$C$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1490,7 +1490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$2:$D$8</c:f>
+              <c:f>Dashboard!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1519,24 +1519,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95688576"/>
-        <c:axId val="95690112"/>
+        <c:axId val="49313664"/>
+        <c:axId val="49315200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95688576"/>
+        <c:axId val="49313664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95690112"/>
+        <c:crossAx val="49315200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95690112"/>
+        <c:axId val="49315200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1544,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95688576"/>
+        <c:crossAx val="49313664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1557,7 +1557,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1579,7 +1579,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$1</c:f>
+              <c:f>Dashboard!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1593,7 +1593,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$2:$C$8</c:f>
+              <c:f>Dashboard!$A$2:$C$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1670,7 +1670,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$2:$D$8</c:f>
+              <c:f>Dashboard!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1700,24 +1700,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95702016"/>
-        <c:axId val="95707904"/>
+        <c:axId val="49331200"/>
+        <c:axId val="49337088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95702016"/>
+        <c:axId val="49331200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95707904"/>
+        <c:crossAx val="49337088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95707904"/>
+        <c:axId val="49337088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1725,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95702016"/>
+        <c:crossAx val="49331200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,7 +1738,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1760,7 +1760,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$17</c:f>
+              <c:f>Dashboard!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1771,7 +1771,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$18:$A$21</c:f>
+              <c:f>Dashboard!$A$18:$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1791,7 +1791,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$18:$B$21</c:f>
+              <c:f>Dashboard!$B$18:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1822,7 +1822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1837,7 +1837,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34537489063867038"/>
+          <c:x val="0.34537489063867044"/>
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1851,7 +1851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$1</c:f>
+              <c:f>Dashboard!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1944,7 +1944,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graphs!$D$2:$D$8</c:f>
+              <c:f>Dashboard!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1973,22 +1973,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96278784"/>
-        <c:axId val="96309248"/>
+        <c:axId val="49359104"/>
+        <c:axId val="49373184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96278784"/>
+        <c:axId val="49359104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96309248"/>
+        <c:crossAx val="49373184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96309248"/>
+        <c:axId val="49373184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1996,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96278784"/>
+        <c:crossAx val="49359104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2009,7 +2009,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2024,8 +2024,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35407517456544357"/>
-          <c:y val="3.2407407407407419E-2"/>
+          <c:x val="0.35407517456544363"/>
+          <c:y val="3.2407407407407426E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2039,7 +2039,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$1</c:f>
+              <c:f>Dashboard!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2050,7 +2050,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$2:$C$8</c:f>
+              <c:f>Dashboard!$A$2:$C$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2127,7 +2127,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$2:$D$8</c:f>
+              <c:f>Dashboard!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2157,24 +2157,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="96337280"/>
-        <c:axId val="96343168"/>
+        <c:axId val="49380736"/>
+        <c:axId val="49394816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96337280"/>
+        <c:axId val="49380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96343168"/>
+        <c:crossAx val="49394816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96343168"/>
+        <c:axId val="49394816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2182,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96337280"/>
+        <c:crossAx val="49380736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,7 +2195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2221,7 +2221,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$1</c:f>
+              <c:f>Dashboard!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2232,7 +2232,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$2:$C$8</c:f>
+              <c:f>Dashboard!$A$2:$C$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2309,7 +2309,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$2:$D$8</c:f>
+              <c:f>Dashboard!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2339,25 +2339,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="96367744"/>
-        <c:axId val="96369280"/>
+        <c:axId val="49439872"/>
+        <c:axId val="49441408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96367744"/>
+        <c:axId val="49439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96369280"/>
+        <c:crossAx val="49441408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96369280"/>
+        <c:axId val="49441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2365,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96367744"/>
+        <c:crossAx val="49439872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2378,7 +2378,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2393,8 +2393,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3880693350831147"/>
-          <c:y val="3.2407407407407419E-2"/>
+          <c:x val="0.38806933508311475"/>
+          <c:y val="3.2407407407407426E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2432,7 +2432,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.3822924785916913"/>
-                  <c:y val="-0.22272914415109882"/>
+                  <c:y val="-0.22272914415109887"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2481,23 +2481,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96444800"/>
-        <c:axId val="96446336"/>
+        <c:axId val="49459584"/>
+        <c:axId val="49461120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96444800"/>
+        <c:axId val="49459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96446336"/>
+        <c:crossAx val="49461120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96446336"/>
+        <c:axId val="49461120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2505,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96444800"/>
+        <c:crossAx val="49459584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2518,7 +2518,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3072,7 +3072,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ctr dpap" refreshedDate="45804.639728125003" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D8" sheet="Graphs"/>
+    <worksheetSource ref="A1:D8" sheet="Dashboard"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Day" numFmtId="0">
@@ -3301,7 +3301,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -3368,7 +3368,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -3426,7 +3426,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K9:L13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3482,7 +3482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K2:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3531,7 +3531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="H2:I15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -4325,9 +4325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -4651,7 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -4814,7 +4812,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5261,6 +5259,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
   <drawing r:id="rId5"/>
